--- a/test/data/excel/DayReport-CH_M52_ACM.xlsx
+++ b/test/data/excel/DayReport-CH_M52_ACM.xlsx
@@ -23,15 +23,15 @@
     <definedName name="macro">config!$Z$1</definedName>
     <definedName name="overwrite">config!$AB$1</definedName>
     <definedName name="print_opt">config!$D$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">data!$1:$1</definedName>
     <definedName name="printer">config!$F$1</definedName>
     <definedName name="report_type">config!$B$1</definedName>
     <definedName name="start_time">config!$N$1</definedName>
     <definedName name="timestamp_opt">config!$X$1</definedName>
     <definedName name="worksheet">config!$AD$1</definedName>
     <definedName name="xls_alt_path">config!$AH$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">data!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -231,10 +231,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="172" formatCode="0.000"/>
-    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy\ h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="hh:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy\ h:mm;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -254,6 +253,8 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -294,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -568,10 +569,49 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -584,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -634,7 +674,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,16 +691,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -672,17 +712,8 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -690,27 +721,24 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -721,7 +749,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -730,12 +758,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -748,9 +791,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -788,7 +831,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -860,7 +903,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1050,20 +1093,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1257,37 +1300,37 @@
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="B11" s="48">
+      <c r="B11" s="44">
         <v>44614</v>
       </c>
       <c r="C11" s="2">
         <v>169632.484375</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="46">
         <v>44614</v>
       </c>
       <c r="E11" s="2">
         <v>1756.6378173828125</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="46">
         <v>44614</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="46">
         <v>44614</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="46">
         <v>44614</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="50">
+      <c r="L11" s="46">
         <v>44614</v>
       </c>
       <c r="M11" s="2">
@@ -1297,37 +1340,37 @@
     </row>
     <row r="12" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
-      <c r="B12" s="49">
+      <c r="B12" s="45">
         <v>44614.041666666664</v>
       </c>
       <c r="C12" s="2">
         <v>7033.296875</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="46">
         <v>44614.041666666664</v>
       </c>
       <c r="E12" s="2">
         <v>72.507186889648438</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="46">
         <v>44614.041666666664</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="46">
         <v>44614.041666666664</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="46">
         <v>44614.041666666664</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="50">
+      <c r="L12" s="46">
         <v>44614.041666666664</v>
       </c>
       <c r="M12" s="2">
@@ -1337,37 +1380,37 @@
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
-      <c r="B13" s="49">
+      <c r="B13" s="45">
         <v>44614.083333333336</v>
       </c>
       <c r="C13" s="2">
         <v>14103.509765625</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="46">
         <v>44614.083333333336</v>
       </c>
       <c r="E13" s="2">
         <v>145.78996276855469</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="46">
         <v>44614.083333333336</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="46">
         <v>44614.083333333336</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="46">
         <v>44614.083333333336</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="50">
+      <c r="L13" s="46">
         <v>44614.083333333336</v>
       </c>
       <c r="M13" s="2">
@@ -1377,37 +1420,37 @@
     </row>
     <row r="14" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
-      <c r="B14" s="49">
+      <c r="B14" s="45">
         <v>44614.125</v>
       </c>
       <c r="C14" s="2">
         <v>21171.5625</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="46">
         <v>44614.125</v>
       </c>
       <c r="E14" s="2">
         <v>219.46418762207031</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="46">
         <v>44614.125</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="46">
         <v>44614.125</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="46">
         <v>44614.125</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
-      <c r="L14" s="50">
+      <c r="L14" s="46">
         <v>44614.125</v>
       </c>
       <c r="M14" s="2">
@@ -1417,37 +1460,37 @@
     </row>
     <row r="15" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
-      <c r="B15" s="49">
+      <c r="B15" s="45">
         <v>44614.166666666664</v>
       </c>
       <c r="C15" s="2">
         <v>28241.580078125</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="46">
         <v>44614.166666666664</v>
       </c>
       <c r="E15" s="2">
         <v>293.34762573242187</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="46">
         <v>44614.166666666664</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="46">
         <v>44614.166666666664</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="46">
         <v>44614.166666666664</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
       </c>
-      <c r="L15" s="50">
+      <c r="L15" s="46">
         <v>44614.166666666664</v>
       </c>
       <c r="M15" s="2">
@@ -1457,37 +1500,37 @@
     </row>
     <row r="16" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="B16" s="49">
+      <c r="B16" s="45">
         <v>44614.208333333336</v>
       </c>
       <c r="C16" s="2">
         <v>35310.0234375</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="46">
         <v>44614.208333333336</v>
       </c>
       <c r="E16" s="2">
         <v>367.070556640625</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="46">
         <v>44614.208333333336</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="46">
         <v>44614.208333333336</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="46">
         <v>44614.208333333336</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
       </c>
-      <c r="L16" s="50">
+      <c r="L16" s="46">
         <v>44614.208333333336</v>
       </c>
       <c r="M16" s="2">
@@ -1497,37 +1540,37 @@
     </row>
     <row r="17" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
-      <c r="B17" s="49">
+      <c r="B17" s="45">
         <v>44614.25</v>
       </c>
       <c r="C17" s="2">
         <v>42378.078125</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="46">
         <v>44614.25</v>
       </c>
       <c r="E17" s="2">
         <v>440.89434814453125</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="46">
         <v>44614.25</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="46">
         <v>44614.25</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="46">
         <v>44614.25</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
       </c>
-      <c r="L17" s="50">
+      <c r="L17" s="46">
         <v>44614.25</v>
       </c>
       <c r="M17" s="2">
@@ -1537,37 +1580,37 @@
     </row>
     <row r="18" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
-      <c r="B18" s="49">
+      <c r="B18" s="45">
         <v>44614.291666666664</v>
       </c>
       <c r="C18" s="2">
         <v>49447.30859375</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="46">
         <v>44614.291666666664</v>
       </c>
       <c r="E18" s="2">
         <v>514.61090087890625</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="46">
         <v>44614.291666666664</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="46">
         <v>44614.291666666664</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="46">
         <v>44614.291666666664</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="L18" s="50">
+      <c r="L18" s="46">
         <v>44614.291666666664</v>
       </c>
       <c r="M18" s="2">
@@ -1577,37 +1620,37 @@
     </row>
     <row r="19" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="B19" s="49">
+      <c r="B19" s="45">
         <v>44614.333333333336</v>
       </c>
       <c r="C19" s="2">
         <v>56517.12890625</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="46">
         <v>44614.333333333336</v>
       </c>
       <c r="E19" s="2">
         <v>588.394775390625</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="46">
         <v>44614.333333333336</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="46">
         <v>44614.333333333336</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="46">
         <v>44614.333333333336</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
       </c>
-      <c r="L19" s="50">
+      <c r="L19" s="46">
         <v>44614.333333333336</v>
       </c>
       <c r="M19" s="2">
@@ -1617,37 +1660,37 @@
     </row>
     <row r="20" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="B20" s="49">
+      <c r="B20" s="45">
         <v>44614.375</v>
       </c>
       <c r="C20" s="2">
         <v>63586.75390625</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="46">
         <v>44614.375</v>
       </c>
       <c r="E20" s="2">
         <v>662.17926025390625</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="46">
         <v>44614.375</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="46">
         <v>44614.375</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="46">
         <v>44614.375</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
       </c>
-      <c r="L20" s="50">
+      <c r="L20" s="46">
         <v>44614.375</v>
       </c>
       <c r="M20" s="2">
@@ -1657,37 +1700,37 @@
     </row>
     <row r="21" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
-      <c r="B21" s="49">
+      <c r="B21" s="45">
         <v>44614.416666666664</v>
       </c>
       <c r="C21" s="2">
         <v>70655.203125</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="46">
         <v>44614.416666666664</v>
       </c>
       <c r="E21" s="2">
         <v>735.7967529296875</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="46">
         <v>44614.416666666664</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="46">
         <v>44614.416666666664</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="46">
         <v>44614.416666666664</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
       </c>
-      <c r="L21" s="50">
+      <c r="L21" s="46">
         <v>44614.416666666664</v>
       </c>
       <c r="M21" s="2">
@@ -1697,37 +1740,37 @@
     </row>
     <row r="22" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
-      <c r="B22" s="49">
+      <c r="B22" s="45">
         <v>44614.458333333336</v>
       </c>
       <c r="C22" s="2">
         <v>77724.625</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="46">
         <v>44614.458333333336</v>
       </c>
       <c r="E22" s="2">
         <v>809.37408447265625</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="46">
         <v>44614.458333333336</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="46">
         <v>44614.458333333336</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
-      <c r="J22" s="50">
+      <c r="J22" s="46">
         <v>44614.458333333336</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
       </c>
-      <c r="L22" s="50">
+      <c r="L22" s="46">
         <v>44614.458333333336</v>
       </c>
       <c r="M22" s="2">
@@ -1737,37 +1780,37 @@
     </row>
     <row r="23" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
-      <c r="B23" s="49">
+      <c r="B23" s="45">
         <v>44614.5</v>
       </c>
       <c r="C23" s="2">
         <v>84793.859375</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="46">
         <v>44614.5</v>
       </c>
       <c r="E23" s="2">
         <v>882.73541259765625</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F23" s="46">
         <v>44614.5</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="46">
         <v>44614.5</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
-      <c r="J23" s="50">
+      <c r="J23" s="46">
         <v>44614.5</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
       </c>
-      <c r="L23" s="50">
+      <c r="L23" s="46">
         <v>44614.5</v>
       </c>
       <c r="M23" s="2">
@@ -1777,37 +1820,37 @@
     </row>
     <row r="24" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
-      <c r="B24" s="49">
+      <c r="B24" s="45">
         <v>44614.541666666664</v>
       </c>
       <c r="C24" s="2">
         <v>91862.890625</v>
       </c>
-      <c r="D24" s="50">
+      <c r="D24" s="46">
         <v>44614.541666666664</v>
       </c>
       <c r="E24" s="2">
         <v>955.83331298828125</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="46">
         <v>44614.541666666664</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="46">
         <v>44614.541666666664</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
       </c>
-      <c r="J24" s="50">
+      <c r="J24" s="46">
         <v>44614.541666666664</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
       </c>
-      <c r="L24" s="50">
+      <c r="L24" s="46">
         <v>44614.541666666664</v>
       </c>
       <c r="M24" s="2">
@@ -1817,37 +1860,37 @@
     </row>
     <row r="25" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
-      <c r="B25" s="49">
+      <c r="B25" s="45">
         <v>44614.583333333336</v>
       </c>
       <c r="C25" s="2">
         <v>98932.125</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="46">
         <v>44614.583333333336</v>
       </c>
       <c r="E25" s="2">
         <v>1028.5323486328125</v>
       </c>
-      <c r="F25" s="50">
+      <c r="F25" s="46">
         <v>44614.583333333336</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H25" s="46">
         <v>44614.583333333336</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
-      <c r="J25" s="50">
+      <c r="J25" s="46">
         <v>44614.583333333336</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
       </c>
-      <c r="L25" s="50">
+      <c r="L25" s="46">
         <v>44614.583333333336</v>
       </c>
       <c r="M25" s="2">
@@ -1857,37 +1900,37 @@
     </row>
     <row r="26" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
-      <c r="B26" s="49">
+      <c r="B26" s="45">
         <v>44614.625</v>
       </c>
       <c r="C26" s="2">
         <v>106001.3515625</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="46">
         <v>44614.625</v>
       </c>
       <c r="E26" s="2">
         <v>1101.10595703125</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="46">
         <v>44614.625</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26" s="46">
         <v>44614.625</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
-      <c r="J26" s="50">
+      <c r="J26" s="46">
         <v>44614.625</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
       </c>
-      <c r="L26" s="50">
+      <c r="L26" s="46">
         <v>44614.625</v>
       </c>
       <c r="M26" s="2">
@@ -1897,37 +1940,37 @@
     </row>
     <row r="27" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
-      <c r="B27" s="49">
+      <c r="B27" s="45">
         <v>44614.666666666664</v>
       </c>
       <c r="C27" s="2">
         <v>113070.78125</v>
       </c>
-      <c r="D27" s="50">
+      <c r="D27" s="46">
         <v>44614.666666666664</v>
       </c>
       <c r="E27" s="2">
         <v>1173.438232421875</v>
       </c>
-      <c r="F27" s="50">
+      <c r="F27" s="46">
         <v>44614.666666666664</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="46">
         <v>44614.666666666664</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
-      <c r="J27" s="50">
+      <c r="J27" s="46">
         <v>44614.666666666664</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
       </c>
-      <c r="L27" s="50">
+      <c r="L27" s="46">
         <v>44614.666666666664</v>
       </c>
       <c r="M27" s="2">
@@ -1937,37 +1980,37 @@
     </row>
     <row r="28" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
-      <c r="B28" s="49">
+      <c r="B28" s="45">
         <v>44614.708333333336</v>
       </c>
       <c r="C28" s="2">
         <v>120139.8203125</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="46">
         <v>44614.708333333336</v>
       </c>
       <c r="E28" s="2">
         <v>1245.79052734375</v>
       </c>
-      <c r="F28" s="50">
+      <c r="F28" s="46">
         <v>44614.708333333336</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
-      <c r="H28" s="50">
+      <c r="H28" s="46">
         <v>44614.708333333336</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
       </c>
-      <c r="J28" s="50">
+      <c r="J28" s="46">
         <v>44614.708333333336</v>
       </c>
       <c r="K28" s="2">
         <v>0</v>
       </c>
-      <c r="L28" s="50">
+      <c r="L28" s="46">
         <v>44614.708333333336</v>
       </c>
       <c r="M28" s="2">
@@ -1977,37 +2020,37 @@
     </row>
     <row r="29" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
-      <c r="B29" s="49">
+      <c r="B29" s="45">
         <v>44614.75</v>
       </c>
       <c r="C29" s="2">
         <v>127209.046875</v>
       </c>
-      <c r="D29" s="50">
+      <c r="D29" s="46">
         <v>44614.75</v>
       </c>
       <c r="E29" s="2">
         <v>1318.2882080078125</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F29" s="46">
         <v>44614.75</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29" s="46">
         <v>44614.75</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
       </c>
-      <c r="J29" s="50">
+      <c r="J29" s="46">
         <v>44614.75</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
       </c>
-      <c r="L29" s="50">
+      <c r="L29" s="46">
         <v>44614.75</v>
       </c>
       <c r="M29" s="2">
@@ -2017,37 +2060,37 @@
     </row>
     <row r="30" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
-      <c r="B30" s="49">
+      <c r="B30" s="45">
         <v>44614.791666666664</v>
       </c>
       <c r="C30" s="2">
         <v>134277.6875</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="46">
         <v>44614.791666666664</v>
       </c>
       <c r="E30" s="2">
         <v>1391.056884765625</v>
       </c>
-      <c r="F30" s="50">
+      <c r="F30" s="46">
         <v>44614.791666666664</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
       </c>
-      <c r="H30" s="50">
+      <c r="H30" s="46">
         <v>44614.791666666664</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
-      <c r="J30" s="50">
+      <c r="J30" s="46">
         <v>44614.791666666664</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
       </c>
-      <c r="L30" s="50">
+      <c r="L30" s="46">
         <v>44614.791666666664</v>
       </c>
       <c r="M30" s="2">
@@ -2057,37 +2100,37 @@
     </row>
     <row r="31" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
-      <c r="B31" s="49">
+      <c r="B31" s="45">
         <v>44614.833333333336</v>
       </c>
       <c r="C31" s="2">
         <v>141347.515625</v>
       </c>
-      <c r="D31" s="50">
+      <c r="D31" s="46">
         <v>44614.833333333336</v>
       </c>
       <c r="E31" s="2">
         <v>1464.052978515625</v>
       </c>
-      <c r="F31" s="50">
+      <c r="F31" s="46">
         <v>44614.833333333336</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31" s="46">
         <v>44614.833333333336</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
       </c>
-      <c r="J31" s="50">
+      <c r="J31" s="46">
         <v>44614.833333333336</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
       </c>
-      <c r="L31" s="50">
+      <c r="L31" s="46">
         <v>44614.833333333336</v>
       </c>
       <c r="M31" s="2">
@@ -2097,37 +2140,37 @@
     </row>
     <row r="32" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
-      <c r="B32" s="49">
+      <c r="B32" s="45">
         <v>44614.875</v>
       </c>
       <c r="C32" s="2">
         <v>148414.96875</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="46">
         <v>44614.875</v>
       </c>
       <c r="E32" s="2">
         <v>1537.5203857421875</v>
       </c>
-      <c r="F32" s="50">
+      <c r="F32" s="46">
         <v>44614.875</v>
       </c>
       <c r="G32" s="2">
         <v>0</v>
       </c>
-      <c r="H32" s="50">
+      <c r="H32" s="46">
         <v>44614.875</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
       </c>
-      <c r="J32" s="50">
+      <c r="J32" s="46">
         <v>44614.875</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
       </c>
-      <c r="L32" s="50">
+      <c r="L32" s="46">
         <v>44614.875</v>
       </c>
       <c r="M32" s="2">
@@ -2137,37 +2180,37 @@
     </row>
     <row r="33" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
-      <c r="B33" s="49">
+      <c r="B33" s="45">
         <v>44614.916666666664</v>
       </c>
       <c r="C33" s="2">
         <v>155484.40625</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="46">
         <v>44614.916666666664</v>
       </c>
       <c r="E33" s="2">
         <v>1611.032958984375</v>
       </c>
-      <c r="F33" s="50">
+      <c r="F33" s="46">
         <v>44614.916666666664</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
       </c>
-      <c r="H33" s="50">
+      <c r="H33" s="46">
         <v>44614.916666666664</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
       </c>
-      <c r="J33" s="50">
+      <c r="J33" s="46">
         <v>44614.916666666664</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
       </c>
-      <c r="L33" s="50">
+      <c r="L33" s="46">
         <v>44614.916666666664</v>
       </c>
       <c r="M33" s="2">
@@ -2177,37 +2220,37 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
-      <c r="B34" s="49">
+      <c r="B34" s="45">
         <v>44614.958333333336</v>
       </c>
       <c r="C34" s="2">
         <v>162554.21875</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="46">
         <v>44614.958333333336</v>
       </c>
       <c r="E34" s="2">
         <v>1684.9996337890625</v>
       </c>
-      <c r="F34" s="50">
+      <c r="F34" s="46">
         <v>44614.958333333336</v>
       </c>
       <c r="G34" s="2">
         <v>0</v>
       </c>
-      <c r="H34" s="50">
+      <c r="H34" s="46">
         <v>44614.958333333336</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
       </c>
-      <c r="J34" s="50">
+      <c r="J34" s="46">
         <v>44614.958333333336</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
       </c>
-      <c r="L34" s="50">
+      <c r="L34" s="46">
         <v>44614.958333333336</v>
       </c>
       <c r="M34" s="2">
@@ -2217,37 +2260,37 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
-      <c r="B35" s="49">
+      <c r="B35" s="45">
         <v>44615</v>
       </c>
       <c r="C35" s="1">
         <v>169622.078125</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="47">
         <v>44615</v>
       </c>
       <c r="E35" s="1">
         <v>1759.3502197265625</v>
       </c>
-      <c r="F35" s="51">
+      <c r="F35" s="47">
         <v>44615</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
       </c>
-      <c r="H35" s="51">
+      <c r="H35" s="47">
         <v>44615</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
       </c>
-      <c r="J35" s="51">
+      <c r="J35" s="47">
         <v>44615</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
       </c>
-      <c r="L35" s="51">
+      <c r="L35" s="47">
         <v>44615</v>
       </c>
       <c r="M35" s="1">
@@ -2278,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2398,34 +2441,34 @@
       <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="52" t="s">
         <v>50</v>
       </c>
       <c r="O9" s="19"/>
@@ -2433,16 +2476,16 @@
       <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="59"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="55"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
@@ -2466,8 +2509,8 @@
       <c r="E11" s="29">
         <v>0</v>
       </c>
-      <c r="F11" s="42" t="b">
-        <f t="shared" ref="F11:F34" si="0">OR(G11&gt;=5,H11&gt;=5,I11&gt;=5,J11&gt;=5)</f>
+      <c r="F11" s="60">
+        <f>IF(OR(G11&gt;=5,H11&gt;=5,I11&gt;=5,J11&gt;=5), 1, 0)</f>
         <v>1</v>
       </c>
       <c r="G11" s="34">
@@ -2509,8 +2552,8 @@
       <c r="E12" s="30">
         <v>0</v>
       </c>
-      <c r="F12" s="41" t="b">
-        <f t="shared" si="0"/>
+      <c r="F12" s="61">
+        <f t="shared" ref="F12:F34" si="0">IF(OR(G12&gt;=5,H12&gt;=5,I12&gt;=5,J12&gt;=5), 1, 0)</f>
         <v>1</v>
       </c>
       <c r="G12" s="35">
@@ -2552,7 +2595,7 @@
       <c r="E13" s="30">
         <v>0</v>
       </c>
-      <c r="F13" s="41" t="b">
+      <c r="F13" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2595,7 +2638,7 @@
       <c r="E14" s="30">
         <v>0</v>
       </c>
-      <c r="F14" s="41" t="b">
+      <c r="F14" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2638,7 +2681,7 @@
       <c r="E15" s="30">
         <v>0</v>
       </c>
-      <c r="F15" s="41" t="b">
+      <c r="F15" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2681,7 +2724,7 @@
       <c r="E16" s="30">
         <v>0</v>
       </c>
-      <c r="F16" s="41" t="b">
+      <c r="F16" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2724,7 +2767,7 @@
       <c r="E17" s="30">
         <v>0</v>
       </c>
-      <c r="F17" s="41" t="b">
+      <c r="F17" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2767,7 +2810,7 @@
       <c r="E18" s="30">
         <v>0</v>
       </c>
-      <c r="F18" s="41" t="b">
+      <c r="F18" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2810,7 +2853,7 @@
       <c r="E19" s="30">
         <v>0</v>
       </c>
-      <c r="F19" s="41" t="b">
+      <c r="F19" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2853,7 +2896,7 @@
       <c r="E20" s="30">
         <v>0</v>
       </c>
-      <c r="F20" s="41" t="b">
+      <c r="F20" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2896,7 +2939,7 @@
       <c r="E21" s="30">
         <v>0</v>
       </c>
-      <c r="F21" s="41" t="b">
+      <c r="F21" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2939,7 +2982,7 @@
       <c r="E22" s="30">
         <v>0</v>
       </c>
-      <c r="F22" s="41" t="b">
+      <c r="F22" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2982,7 +3025,7 @@
       <c r="E23" s="30">
         <v>0</v>
       </c>
-      <c r="F23" s="41" t="b">
+      <c r="F23" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3025,7 +3068,7 @@
       <c r="E24" s="30">
         <v>0</v>
       </c>
-      <c r="F24" s="41" t="b">
+      <c r="F24" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3068,7 +3111,7 @@
       <c r="E25" s="30">
         <v>0</v>
       </c>
-      <c r="F25" s="41" t="b">
+      <c r="F25" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3111,7 +3154,7 @@
       <c r="E26" s="30">
         <v>0</v>
       </c>
-      <c r="F26" s="41" t="b">
+      <c r="F26" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3154,7 +3197,7 @@
       <c r="E27" s="30">
         <v>0</v>
       </c>
-      <c r="F27" s="41" t="b">
+      <c r="F27" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3197,7 +3240,7 @@
       <c r="E28" s="30">
         <v>0</v>
       </c>
-      <c r="F28" s="41" t="b">
+      <c r="F28" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3240,7 +3283,7 @@
       <c r="E29" s="30">
         <v>0</v>
       </c>
-      <c r="F29" s="41" t="b">
+      <c r="F29" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3283,7 +3326,7 @@
       <c r="E30" s="30">
         <v>0</v>
       </c>
-      <c r="F30" s="41" t="b">
+      <c r="F30" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3326,7 +3369,7 @@
       <c r="E31" s="30">
         <v>0</v>
       </c>
-      <c r="F31" s="41" t="b">
+      <c r="F31" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3369,7 +3412,7 @@
       <c r="E32" s="30">
         <v>0</v>
       </c>
-      <c r="F32" s="41" t="b">
+      <c r="F32" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3412,7 +3455,7 @@
       <c r="E33" s="30">
         <v>0</v>
       </c>
-      <c r="F33" s="41" t="b">
+      <c r="F33" s="61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3441,37 +3484,37 @@
         <f>data!B35</f>
         <v>44615</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="40">
         <f>IF((data!C35-data!C34)&lt;0,data!C35*1000/3600,(data!C35-data!C34)*1000/3600)</f>
         <v>1963.2942708333333</v>
       </c>
-      <c r="C34" s="44">
-        <v>0</v>
-      </c>
-      <c r="D34" s="44">
+      <c r="C34" s="41">
+        <v>0</v>
+      </c>
+      <c r="D34" s="41">
         <f>IF((data!E35-data!E34)&lt;0,data!E35*1000,(data!E35-data!E34)*1000)</f>
         <v>74350.5859375</v>
       </c>
-      <c r="E34" s="44">
-        <v>0</v>
-      </c>
-      <c r="F34" s="45" t="b">
+      <c r="E34" s="41">
+        <v>0</v>
+      </c>
+      <c r="F34" s="62">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="42">
         <f>IF((data!G35-data!G34)&lt;0,data!G35,(data!G35-data!G34))</f>
         <v>0</v>
       </c>
-      <c r="H34" s="46">
+      <c r="H34" s="42">
         <f>IF((data!I35-data!I34)&lt;0,data!I35,(data!I35-data!I34))</f>
         <v>0</v>
       </c>
-      <c r="I34" s="46">
+      <c r="I34" s="42">
         <f>IF((data!K35-data!K34)&lt;0,data!K35,(data!K35-data!K34))</f>
         <v>0</v>
       </c>
-      <c r="J34" s="47">
+      <c r="J34" s="43">
         <f>IF((data!M35-data!M34)&lt;0,data!M35,(data!M35-data!M34))</f>
         <v>15.18511962890625</v>
       </c>
@@ -3487,30 +3530,39 @@
         <f>AVERAGE(B11:B34)</f>
         <v>1963.2184968171298</v>
       </c>
-      <c r="C35" s="38"/>
+      <c r="C35" s="59">
+        <f>COUNTIF(C11:C34, "&gt;0")</f>
+        <v>0</v>
+      </c>
       <c r="D35" s="38">
         <f>SUM(D11:D34)</f>
         <v>1759350.2197265625</v>
       </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39">
+      <c r="E35" s="59">
+        <f>COUNTIF(E11:E34, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="59">
+        <f>COUNTIF(F11:F34, "&gt;0")</f>
+        <v>24</v>
+      </c>
+      <c r="G35" s="58">
         <f>SUM(G11:G34)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="39">
         <f>SUM(H11:H34)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="40">
+      <c r="I35" s="39">
         <f>SUM(I11:I34)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="53">
+      <c r="J35" s="49">
         <f>SUM(J11:J34)</f>
         <v>372.3349609375</v>
       </c>
-      <c r="K35" s="52"/>
+      <c r="K35" s="48"/>
     </row>
     <row r="36" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
@@ -3583,11 +3635,11 @@
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="58">
+      <c r="A44" s="54">
         <f ca="1">NOW()</f>
-        <v>44615.555283217589</v>
-      </c>
-      <c r="B44" s="58"/>
+        <v>44659.531499884259</v>
+      </c>
+      <c r="B44" s="54"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -3603,17 +3655,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.53" right="0.24" top="0.28000000000000003" bottom="0.02" header="0.09" footer="0.22"/>

--- a/test/data/excel/DayReport-CH_M52_ACM.xlsx
+++ b/test/data/excel/DayReport-CH_M52_ACM.xlsx
@@ -224,7 +224,7 @@
     <t>да/нет</t>
   </si>
   <si>
-    <t>data period - from: 2022-02-22 00:00 to: 2022-02-23 00:00:00</t>
+    <t>data period - from: 2022-01-01 00:00 to: 2022-01-02 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -741,40 +741,40 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,20 +1093,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -2321,7 +2321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -2343,7 +2343,7 @@
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="str">
         <f>data!A1</f>
-        <v>data period - from: 2022-02-22 00:00 to: 2022-02-23 00:00:00</v>
+        <v>data period - from: 2022-01-01 00:00 to: 2022-01-02 00:00:00</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -2441,34 +2441,34 @@
       <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="52" t="s">
+      <c r="J9" s="57" t="s">
         <v>50</v>
       </c>
       <c r="O9" s="19"/>
@@ -2476,16 +2476,16 @@
       <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="55"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="58"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
@@ -2509,7 +2509,7 @@
       <c r="E11" s="29">
         <v>0</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="52">
         <f>IF(OR(G11&gt;=5,H11&gt;=5,I11&gt;=5,J11&gt;=5), 1, 0)</f>
         <v>1</v>
       </c>
@@ -2552,7 +2552,7 @@
       <c r="E12" s="30">
         <v>0</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="53">
         <f t="shared" ref="F12:F34" si="0">IF(OR(G12&gt;=5,H12&gt;=5,I12&gt;=5,J12&gt;=5), 1, 0)</f>
         <v>1</v>
       </c>
@@ -2595,7 +2595,7 @@
       <c r="E13" s="30">
         <v>0</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2638,7 +2638,7 @@
       <c r="E14" s="30">
         <v>0</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2681,7 +2681,7 @@
       <c r="E15" s="30">
         <v>0</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2724,7 +2724,7 @@
       <c r="E16" s="30">
         <v>0</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2767,7 +2767,7 @@
       <c r="E17" s="30">
         <v>0</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2810,7 +2810,7 @@
       <c r="E18" s="30">
         <v>0</v>
       </c>
-      <c r="F18" s="61">
+      <c r="F18" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2853,7 +2853,7 @@
       <c r="E19" s="30">
         <v>0</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2896,7 +2896,7 @@
       <c r="E20" s="30">
         <v>0</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="E21" s="30">
         <v>0</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="E22" s="30">
         <v>0</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3025,7 +3025,7 @@
       <c r="E23" s="30">
         <v>0</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3068,7 +3068,7 @@
       <c r="E24" s="30">
         <v>0</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F24" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3111,7 +3111,7 @@
       <c r="E25" s="30">
         <v>0</v>
       </c>
-      <c r="F25" s="61">
+      <c r="F25" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3154,7 +3154,7 @@
       <c r="E26" s="30">
         <v>0</v>
       </c>
-      <c r="F26" s="61">
+      <c r="F26" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3197,7 +3197,7 @@
       <c r="E27" s="30">
         <v>0</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="E28" s="30">
         <v>0</v>
       </c>
-      <c r="F28" s="61">
+      <c r="F28" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="E29" s="30">
         <v>0</v>
       </c>
-      <c r="F29" s="61">
+      <c r="F29" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3326,7 +3326,7 @@
       <c r="E30" s="30">
         <v>0</v>
       </c>
-      <c r="F30" s="61">
+      <c r="F30" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="E31" s="30">
         <v>0</v>
       </c>
-      <c r="F31" s="61">
+      <c r="F31" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3412,7 +3412,7 @@
       <c r="E32" s="30">
         <v>0</v>
       </c>
-      <c r="F32" s="61">
+      <c r="F32" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3455,7 +3455,7 @@
       <c r="E33" s="30">
         <v>0</v>
       </c>
-      <c r="F33" s="61">
+      <c r="F33" s="53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3498,7 +3498,7 @@
       <c r="E34" s="41">
         <v>0</v>
       </c>
-      <c r="F34" s="62">
+      <c r="F34" s="54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3530,7 +3530,7 @@
         <f>AVERAGE(B11:B34)</f>
         <v>1963.2184968171298</v>
       </c>
-      <c r="C35" s="59">
+      <c r="C35" s="51">
         <f>COUNTIF(C11:C34, "&gt;0")</f>
         <v>0</v>
       </c>
@@ -3538,15 +3538,15 @@
         <f>SUM(D11:D34)</f>
         <v>1759350.2197265625</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="51">
         <f>COUNTIF(E11:E34, "&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F35" s="51">
         <f>COUNTIF(F11:F34, "&gt;0")</f>
         <v>24</v>
       </c>
-      <c r="G35" s="58">
+      <c r="G35" s="50">
         <f>SUM(G11:G34)</f>
         <v>0</v>
       </c>
@@ -3635,11 +3635,11 @@
       <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="54">
+      <c r="A44" s="62">
         <f ca="1">NOW()</f>
-        <v>44659.531499884259</v>
-      </c>
-      <c r="B44" s="54"/>
+        <v>44666.398627430557</v>
+      </c>
+      <c r="B44" s="62"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -3655,6 +3655,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E9:E10"/>
@@ -3662,10 +3666,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.53" right="0.24" top="0.28000000000000003" bottom="0.02" header="0.09" footer="0.22"/>
